--- a/kadastro_veri.xlsx
+++ b/kadastro_veri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5396F431-0A99-49F9-BEB1-2BBA2E2E083A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C240FB-CC42-4C6C-A68C-D87E64A0BD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,19 @@
     <sheet name="DEVAM EDEN" sheetId="1" r:id="rId1"/>
     <sheet name="İHALEDE" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="333">
   <si>
     <t>İLÇE</t>
   </si>
@@ -715,234 +726,90 @@
     <t>GÜNCELLEME</t>
   </si>
   <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
     <t>ESENLİ</t>
   </si>
   <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
     <t>HEBİLLİ</t>
   </si>
   <si>
-    <t>537</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>BEKİRALANI</t>
   </si>
   <si>
-    <t>1162</t>
-  </si>
-  <si>
-    <t>1844</t>
-  </si>
-  <si>
     <t>ÇELEBİLİ</t>
   </si>
   <si>
-    <t>827</t>
-  </si>
-  <si>
     <t>DARISEKİSİ</t>
   </si>
   <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>661</t>
-  </si>
-  <si>
     <t>DÜĞDÜÖREN</t>
   </si>
   <si>
-    <t>137</t>
-  </si>
-  <si>
     <t>EVCİLİ</t>
   </si>
   <si>
-    <t>2660</t>
-  </si>
-  <si>
     <t>736</t>
   </si>
   <si>
     <t>KORUCULAR</t>
   </si>
   <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>MUSALI</t>
   </si>
   <si>
-    <t>1663</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>GÖÇÜK</t>
   </si>
   <si>
-    <t>1750</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>KIZILÇUKUR</t>
   </si>
   <si>
-    <t>1238</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
     <t>KARAKÜTÜK</t>
   </si>
   <si>
-    <t>1180</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
     <t>ESKİŞEHİR</t>
   </si>
   <si>
-    <t>400</t>
-  </si>
-  <si>
     <t>KERİMLER</t>
   </si>
   <si>
     <t>TAŞÇILI</t>
   </si>
   <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>İNCİRGEDİĞİ</t>
   </si>
   <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>KADELLİ</t>
   </si>
   <si>
-    <t>1452</t>
-  </si>
-  <si>
     <t>CİNKÖY</t>
   </si>
   <si>
-    <t>887</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
     <t>İNKÖY</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
     <t>OLUKKOYAĞI</t>
   </si>
   <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>1353</t>
-  </si>
-  <si>
     <t>BOZÖN</t>
   </si>
   <si>
-    <t>2170</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
     <t>BELENKEŞLİK</t>
   </si>
   <si>
-    <t>1655</t>
-  </si>
-  <si>
-    <t>2415</t>
-  </si>
-  <si>
     <t>DORUKLU</t>
   </si>
   <si>
-    <t>1618</t>
-  </si>
-  <si>
-    <t>834</t>
-  </si>
-  <si>
     <t>GÖZNE</t>
   </si>
   <si>
-    <t>2284</t>
-  </si>
-  <si>
-    <t>4833</t>
-  </si>
-  <si>
     <t>KAŞLI</t>
   </si>
   <si>
-    <t>640</t>
-  </si>
-  <si>
     <t>RESULKÖY</t>
   </si>
   <si>
-    <t>952</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
     <t>EMİRLER</t>
   </si>
   <si>
-    <t>1174</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
     <t>Turunçlu</t>
   </si>
   <si>
@@ -1006,17 +873,176 @@
     <t>Kuskan/Oğuzkan</t>
   </si>
   <si>
-    <t>165</t>
-  </si>
-  <si>
     <t>Kahraman Gülek</t>
+  </si>
+  <si>
+    <t>ANAMUR</t>
+  </si>
+  <si>
+    <t>AŞAĞIKÜKÜR</t>
+  </si>
+  <si>
+    <t>BOZDOĞAN</t>
+  </si>
+  <si>
+    <t>BOĞUNTU</t>
+  </si>
+  <si>
+    <t>ÇAMLIPINAR</t>
+  </si>
+  <si>
+    <t>ÇAMLIPINARALANI</t>
+  </si>
+  <si>
+    <t>ÇATALOLUK</t>
+  </si>
+  <si>
+    <t>ÇUKURABANOZ</t>
+  </si>
+  <si>
+    <t>DEMİRÖREN</t>
+  </si>
+  <si>
+    <t>GÜNGÖREN</t>
+  </si>
+  <si>
+    <t>KALINÖREN</t>
+  </si>
+  <si>
+    <t>KARAÇUKUR</t>
+  </si>
+  <si>
+    <t>KARALARBAHŞİŞ</t>
+  </si>
+  <si>
+    <t>KARAAĞA</t>
+  </si>
+  <si>
+    <t>KORUCUK</t>
+  </si>
+  <si>
+    <t>MALAKLAR</t>
+  </si>
+  <si>
+    <t>NASRADDİN</t>
+  </si>
+  <si>
+    <t>ORMANCIK</t>
+  </si>
+  <si>
+    <t>ORTAKÖY</t>
+  </si>
+  <si>
+    <t>SUGÖZÜ</t>
+  </si>
+  <si>
+    <t>SARIAĞAÇ</t>
+  </si>
+  <si>
+    <t>SARIDANA</t>
+  </si>
+  <si>
+    <t>YUKARIKÜKÜR</t>
+  </si>
+  <si>
+    <t>AYDINCIK</t>
+  </si>
+  <si>
+    <t>HACIBAHATTİN</t>
+  </si>
+  <si>
+    <t>BOZYAZI</t>
+  </si>
+  <si>
+    <t>BAHÇEKOYAĞI</t>
+  </si>
+  <si>
+    <t>BEYRELİ</t>
+  </si>
+  <si>
+    <t>ELMAKUZU</t>
+  </si>
+  <si>
+    <t>GÖZCE</t>
+  </si>
+  <si>
+    <t>GÖZSÜZCE</t>
+  </si>
+  <si>
+    <t>KÖMÜRLÜ</t>
+  </si>
+  <si>
+    <t>LENGER</t>
+  </si>
+  <si>
+    <t>KIZILCA</t>
+  </si>
+  <si>
+    <t>TEKEDÜZÜ</t>
+  </si>
+  <si>
+    <t>DEREKÖY</t>
+  </si>
+  <si>
+    <t>GÜLNAR</t>
+  </si>
+  <si>
+    <t>BÜYÜKECELİ</t>
+  </si>
+  <si>
+    <t>ŞEYHÖMER</t>
+  </si>
+  <si>
+    <t>ZEYNE(SÜTLÜCE)</t>
+  </si>
+  <si>
+    <t>SİLİFKE</t>
+  </si>
+  <si>
+    <t>ALTINKUM</t>
+  </si>
+  <si>
+    <t>ARKARASI</t>
+  </si>
+  <si>
+    <t>ATİK</t>
+  </si>
+  <si>
+    <t>BOYNUİNCELİ</t>
+  </si>
+  <si>
+    <t>BURUNUCU</t>
+  </si>
+  <si>
+    <t>ÇELTİKÇİ</t>
+  </si>
+  <si>
+    <t>GÜLÜMPAŞALI</t>
+  </si>
+  <si>
+    <t>HIRMANLI</t>
+  </si>
+  <si>
+    <t>İMAMUŞAĞI</t>
+  </si>
+  <si>
+    <t>KURTULUŞ</t>
+  </si>
+  <si>
+    <t>NASRULLAH</t>
+  </si>
+  <si>
+    <t>SÖKÜN</t>
+  </si>
+  <si>
+    <t>ULUGÖZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1024,13 +1050,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1042,14 +1108,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="İyi" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sayfa1" xfId="2" xr:uid="{3F564DA4-B7C0-4128-82D7-34672DBCFB32}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1386,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P134" sqref="P134"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1397,13 +1492,13 @@
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1413,20 +1508,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1436,20 +1528,17 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1459,20 +1548,17 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1482,20 +1568,17 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1505,20 +1588,17 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1528,20 +1608,17 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1551,20 +1628,17 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1574,20 +1648,17 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1597,20 +1668,17 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1620,20 +1688,17 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1643,20 +1708,17 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1666,20 +1728,17 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1689,20 +1748,17 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1712,20 +1768,17 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1735,20 +1788,17 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1758,20 +1808,17 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1781,20 +1828,17 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1804,20 +1848,17 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1827,20 +1868,17 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1850,20 +1888,17 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1873,20 +1908,17 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1896,20 +1928,17 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1919,20 +1948,17 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1942,20 +1968,17 @@
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1965,20 +1988,17 @@
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1988,20 +2008,17 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -2011,20 +2028,17 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -2034,20 +2048,17 @@
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -2057,20 +2068,17 @@
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -2080,20 +2088,17 @@
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -2103,20 +2108,17 @@
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -2126,20 +2128,17 @@
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -2149,20 +2148,17 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -2172,20 +2168,17 @@
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -2195,20 +2188,17 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -2218,20 +2208,17 @@
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -2241,20 +2228,17 @@
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -2264,20 +2248,17 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -2287,20 +2268,17 @@
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -2310,20 +2288,17 @@
       <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2333,20 +2308,17 @@
       <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -2356,20 +2328,17 @@
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -2379,20 +2348,17 @@
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -2402,20 +2368,17 @@
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -2425,20 +2388,17 @@
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -2448,20 +2408,17 @@
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -2471,20 +2428,17 @@
       <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -2494,20 +2448,17 @@
       <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -2517,20 +2468,17 @@
       <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F49" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -2540,20 +2488,17 @@
       <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F50" t="s">
+      <c r="E50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F50" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -2563,20 +2508,17 @@
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F51" t="s">
+      <c r="E51" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -2586,20 +2528,17 @@
       <c r="C52" t="s">
         <v>9</v>
       </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F52" t="s">
+      <c r="E52" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F52" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -2609,20 +2548,17 @@
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F53" t="s">
+      <c r="E53" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -2632,20 +2568,17 @@
       <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F54" t="s">
+      <c r="E54" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F54" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -2655,20 +2588,17 @@
       <c r="C55" t="s">
         <v>9</v>
       </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F55" t="s">
+      <c r="E55" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F55" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -2678,20 +2608,17 @@
       <c r="C56" t="s">
         <v>9</v>
       </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F56" t="s">
+      <c r="E56" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F56" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -2701,20 +2628,17 @@
       <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F57" t="s">
+      <c r="E57" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F57" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -2724,20 +2648,17 @@
       <c r="C58" t="s">
         <v>9</v>
       </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F58" t="s">
+      <c r="E58" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F58" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>154</v>
       </c>
@@ -2747,20 +2668,17 @@
       <c r="C59" t="s">
         <v>9</v>
       </c>
-      <c r="D59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F59" t="s">
+      <c r="E59" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F59" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -2770,20 +2688,17 @@
       <c r="C60" t="s">
         <v>9</v>
       </c>
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F60" t="s">
+      <c r="E60" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F60" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>154</v>
       </c>
@@ -2793,20 +2708,17 @@
       <c r="C61" t="s">
         <v>9</v>
       </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F61" t="s">
+      <c r="E61" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F61" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>154</v>
       </c>
@@ -2816,20 +2728,17 @@
       <c r="C62" t="s">
         <v>9</v>
       </c>
-      <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D62" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F62" t="s">
+      <c r="E62" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F62" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>154</v>
       </c>
@@ -2839,20 +2748,17 @@
       <c r="C63" t="s">
         <v>9</v>
       </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F63" t="s">
+      <c r="E63" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>164</v>
       </c>
@@ -2862,20 +2768,17 @@
       <c r="C64" t="s">
         <v>9</v>
       </c>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D64" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F64" t="s">
+      <c r="E64" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F64" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>164</v>
       </c>
@@ -2885,20 +2788,17 @@
       <c r="C65" t="s">
         <v>9</v>
       </c>
-      <c r="D65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D65" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F65" t="s">
+      <c r="E65" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F65" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>164</v>
       </c>
@@ -2908,20 +2808,17 @@
       <c r="C66" t="s">
         <v>9</v>
       </c>
-      <c r="D66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F66" t="s">
+      <c r="E66" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F66" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>164</v>
       </c>
@@ -2931,20 +2828,17 @@
       <c r="C67" t="s">
         <v>9</v>
       </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D67" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F67" t="s">
+      <c r="E67" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F67" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>164</v>
       </c>
@@ -2954,20 +2848,17 @@
       <c r="C68" t="s">
         <v>9</v>
       </c>
-      <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D68" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F68" t="s">
+      <c r="E68" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F68" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -2977,20 +2868,17 @@
       <c r="C69" t="s">
         <v>9</v>
       </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D69" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F69" t="s">
+      <c r="E69" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F69" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -3000,20 +2888,17 @@
       <c r="C70" t="s">
         <v>9</v>
       </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D70" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F70" t="s">
+      <c r="E70" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F70" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>181</v>
       </c>
@@ -3023,20 +2908,17 @@
       <c r="C71" t="s">
         <v>9</v>
       </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D71" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F71" t="s">
+      <c r="E71" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F71" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>181</v>
       </c>
@@ -3046,20 +2928,17 @@
       <c r="C72" t="s">
         <v>9</v>
       </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D72" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F72" t="s">
+      <c r="E72" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F72" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>181</v>
       </c>
@@ -3069,20 +2948,17 @@
       <c r="C73" t="s">
         <v>9</v>
       </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F73" t="s">
+      <c r="E73" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F73" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -3092,20 +2968,17 @@
       <c r="C74" t="s">
         <v>9</v>
       </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D74" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F74" t="s">
+      <c r="E74" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F74" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>190</v>
       </c>
@@ -3115,20 +2988,17 @@
       <c r="C75" t="s">
         <v>9</v>
       </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="D75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F75" t="s">
+      <c r="E75" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F75" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -3138,20 +3008,17 @@
       <c r="C76" t="s">
         <v>9</v>
       </c>
-      <c r="D76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="D76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F76" t="s">
+      <c r="E76" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F76" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -3161,20 +3028,17 @@
       <c r="C77" t="s">
         <v>9</v>
       </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D77" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F77" t="s">
+      <c r="E77" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F77" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>190</v>
       </c>
@@ -3184,20 +3048,17 @@
       <c r="C78" t="s">
         <v>9</v>
       </c>
-      <c r="D78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D78" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F78" t="s">
+      <c r="E78" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F78" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>190</v>
       </c>
@@ -3207,20 +3068,17 @@
       <c r="C79" t="s">
         <v>9</v>
       </c>
-      <c r="D79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D79" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F79" t="s">
+      <c r="E79" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F79" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -3230,20 +3088,17 @@
       <c r="C80" t="s">
         <v>9</v>
       </c>
-      <c r="D80" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F80" t="s">
+      <c r="E80" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F80" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -3253,20 +3108,17 @@
       <c r="C81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="D81" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F81" t="s">
+      <c r="E81" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F81" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -3276,20 +3128,17 @@
       <c r="C82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="D82" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F82" t="s">
+      <c r="E82" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F82" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -3299,20 +3148,17 @@
       <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D83" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F83" t="s">
+      <c r="E83" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F83" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>207</v>
       </c>
@@ -3322,20 +3168,17 @@
       <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="D84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D84" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F84" t="s">
+      <c r="E84" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F84" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>207</v>
       </c>
@@ -3345,20 +3188,17 @@
       <c r="C85" t="s">
         <v>9</v>
       </c>
-      <c r="D85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D85" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F85" t="s">
+      <c r="E85" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F85" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>207</v>
       </c>
@@ -3368,20 +3208,17 @@
       <c r="C86" t="s">
         <v>9</v>
       </c>
-      <c r="D86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D86" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F86" t="s">
+      <c r="E86" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F86" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>207</v>
       </c>
@@ -3391,20 +3228,17 @@
       <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="D87" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D87" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F87" t="s">
+      <c r="E87" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F87" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -3414,20 +3248,17 @@
       <c r="C88" t="s">
         <v>9</v>
       </c>
-      <c r="D88" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D88" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F88" t="s">
+      <c r="E88" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F88" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>207</v>
       </c>
@@ -3437,20 +3268,17 @@
       <c r="C89" t="s">
         <v>9</v>
       </c>
-      <c r="D89" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D89" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F89" t="s">
+      <c r="E89" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F89" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>219</v>
       </c>
@@ -3460,20 +3288,17 @@
       <c r="C90" t="s">
         <v>9</v>
       </c>
-      <c r="D90" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D90" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F90" t="s">
+      <c r="E90" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F90" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>219</v>
       </c>
@@ -3483,20 +3308,17 @@
       <c r="C91" t="s">
         <v>9</v>
       </c>
-      <c r="D91" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D91" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F91" t="s">
+      <c r="E91" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F91" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>219</v>
       </c>
@@ -3506,20 +3328,17 @@
       <c r="C92" t="s">
         <v>9</v>
       </c>
-      <c r="D92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D92" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F92" t="s">
+      <c r="E92" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F92" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>219</v>
       </c>
@@ -3529,20 +3348,17 @@
       <c r="C93" t="s">
         <v>9</v>
       </c>
-      <c r="D93" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="D93" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F93" t="s">
+      <c r="E93" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F93" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -3552,1047 +3368,1625 @@
       <c r="C94" t="s">
         <v>9</v>
       </c>
-      <c r="D94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D94" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F94" t="s">
+      <c r="E94" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F94" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>228</v>
-      </c>
-      <c r="D95" t="s">
-        <v>229</v>
-      </c>
-      <c r="E95" t="s">
-        <v>230</v>
-      </c>
-      <c r="F95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C96" t="s">
         <v>228</v>
       </c>
-      <c r="D96" t="s">
-        <v>232</v>
-      </c>
-      <c r="E96" t="s">
-        <v>233</v>
-      </c>
-      <c r="F96" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D96" s="7">
+        <v>560</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>181</v>
       </c>
       <c r="B97" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s">
         <v>228</v>
       </c>
-      <c r="D97" t="s">
-        <v>235</v>
-      </c>
-      <c r="E97" t="s">
-        <v>236</v>
-      </c>
-      <c r="F97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D97" s="7">
+        <v>937</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B98" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C98" t="s">
         <v>228</v>
       </c>
-      <c r="D98" t="s">
-        <v>238</v>
-      </c>
-      <c r="E98" t="s">
-        <v>239</v>
-      </c>
-      <c r="F98" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D98" s="7">
+        <v>638</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>207</v>
       </c>
       <c r="B99" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C99" t="s">
         <v>228</v>
       </c>
-      <c r="D99" t="s">
-        <v>241</v>
-      </c>
-      <c r="E99" t="s">
-        <v>144</v>
-      </c>
-      <c r="F99" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D99" s="7">
+        <v>3006</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>207</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C100" t="s">
         <v>228</v>
       </c>
-      <c r="D100" t="s">
-        <v>243</v>
-      </c>
-      <c r="E100" t="s">
-        <v>244</v>
-      </c>
-      <c r="F100" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D100" s="7">
+        <v>871</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>207</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C101" t="s">
         <v>228</v>
       </c>
-      <c r="D101" t="s">
-        <v>246</v>
-      </c>
-      <c r="E101" t="s">
-        <v>69</v>
-      </c>
-      <c r="F101" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D101" s="7">
+        <v>1128</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C102" t="s">
         <v>228</v>
       </c>
-      <c r="D102" t="s">
-        <v>248</v>
-      </c>
-      <c r="E102" t="s">
-        <v>249</v>
-      </c>
-      <c r="F102" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D102" s="7">
+        <v>204</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C103" t="s">
         <v>228</v>
       </c>
-      <c r="D103" t="s">
-        <v>251</v>
-      </c>
-      <c r="E103" t="s">
-        <v>252</v>
-      </c>
-      <c r="F103" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D103" s="7">
+        <v>3396</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>207</v>
       </c>
       <c r="B104" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C104" t="s">
         <v>228</v>
       </c>
-      <c r="D104" t="s">
-        <v>254</v>
-      </c>
-      <c r="E104" t="s">
-        <v>255</v>
-      </c>
-      <c r="F104" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D104" s="7">
+        <v>402</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C105" t="s">
         <v>228</v>
       </c>
-      <c r="D105" t="s">
-        <v>257</v>
-      </c>
-      <c r="E105" t="s">
-        <v>258</v>
-      </c>
-      <c r="F105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D105" s="7">
+        <v>1775</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>164</v>
       </c>
       <c r="B106" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="C106" t="s">
         <v>228</v>
       </c>
-      <c r="D106" t="s">
-        <v>260</v>
-      </c>
-      <c r="E106" t="s">
-        <v>261</v>
-      </c>
-      <c r="F106" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D106" s="7">
+        <v>1850</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>164</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C107" t="s">
         <v>228</v>
       </c>
-      <c r="D107" t="s">
-        <v>263</v>
-      </c>
-      <c r="E107" t="s">
-        <v>264</v>
-      </c>
-      <c r="F107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D107" s="7">
+        <v>1439</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>164</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C108" t="s">
         <v>228</v>
       </c>
-      <c r="D108" t="s">
-        <v>266</v>
-      </c>
-      <c r="E108" t="s">
-        <v>72</v>
-      </c>
-      <c r="F108" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D108" s="7">
+        <v>1277</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>164</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C109" t="s">
         <v>228</v>
       </c>
-      <c r="D109" t="s">
-        <v>266</v>
-      </c>
-      <c r="E109" t="s">
-        <v>57</v>
-      </c>
-      <c r="F109" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D109" s="7">
+        <v>422</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>164</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C110" t="s">
         <v>228</v>
       </c>
-      <c r="D110" t="s">
-        <v>269</v>
-      </c>
-      <c r="E110" t="s">
-        <v>270</v>
-      </c>
-      <c r="F110" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D110" s="7">
+        <v>415</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>164</v>
       </c>
       <c r="B111" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="C111" t="s">
         <v>228</v>
       </c>
-      <c r="D111" t="s">
-        <v>272</v>
-      </c>
-      <c r="E111" t="s">
-        <v>273</v>
-      </c>
-      <c r="F111" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D111" s="7">
+        <v>980</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>164</v>
       </c>
       <c r="B112" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="C112" t="s">
         <v>228</v>
       </c>
-      <c r="D112" t="s">
-        <v>275</v>
-      </c>
-      <c r="E112" t="s">
-        <v>119</v>
-      </c>
-      <c r="F112" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D112" s="7">
+        <v>808</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>164</v>
       </c>
       <c r="B113" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="C113" t="s">
         <v>228</v>
       </c>
-      <c r="D113" t="s">
-        <v>277</v>
-      </c>
-      <c r="E113" t="s">
-        <v>278</v>
-      </c>
-      <c r="F113" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D113" s="7">
+        <v>1757</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>164</v>
       </c>
       <c r="B114" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="C114" t="s">
         <v>228</v>
       </c>
-      <c r="D114" t="s">
-        <v>280</v>
-      </c>
-      <c r="E114" t="s">
-        <v>281</v>
-      </c>
-      <c r="F114" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D114" s="7">
+        <v>1021</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>164</v>
       </c>
       <c r="B115" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="C115" t="s">
         <v>228</v>
       </c>
-      <c r="D115" t="s">
-        <v>283</v>
-      </c>
-      <c r="E115" t="s">
-        <v>284</v>
-      </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D115" s="7">
+        <v>564</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" t="s">
+        <v>228</v>
+      </c>
+      <c r="D116" s="7">
+        <v>2418</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>190</v>
       </c>
-      <c r="B116" t="s">
-        <v>285</v>
-      </c>
-      <c r="C116" t="s">
-        <v>228</v>
-      </c>
-      <c r="D116" t="s">
-        <v>286</v>
-      </c>
-      <c r="E116" t="s">
-        <v>287</v>
-      </c>
-      <c r="F116" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>207</v>
-      </c>
       <c r="B117" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="C117" t="s">
         <v>228</v>
       </c>
-      <c r="D117" t="s">
-        <v>289</v>
-      </c>
-      <c r="E117" t="s">
-        <v>290</v>
-      </c>
-      <c r="F117" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D117" s="7">
+        <v>2706</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>207</v>
       </c>
       <c r="B118" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="C118" t="s">
         <v>228</v>
       </c>
-      <c r="D118" t="s">
-        <v>292</v>
-      </c>
-      <c r="E118" t="s">
-        <v>293</v>
-      </c>
-      <c r="F118" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D118" s="7">
+        <v>4070</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>207</v>
       </c>
       <c r="B119" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="C119" t="s">
         <v>228</v>
       </c>
-      <c r="D119" t="s">
-        <v>295</v>
-      </c>
-      <c r="E119" t="s">
-        <v>296</v>
-      </c>
-      <c r="F119" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D119" s="7">
+        <v>2452</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>207</v>
       </c>
       <c r="B120" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="C120" t="s">
         <v>228</v>
       </c>
-      <c r="D120" t="s">
-        <v>298</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D120" s="7">
+        <v>7117</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>207</v>
       </c>
       <c r="B121" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="C121" t="s">
         <v>228</v>
       </c>
-      <c r="D121" t="s">
-        <v>300</v>
-      </c>
-      <c r="E121" t="s">
-        <v>301</v>
-      </c>
-      <c r="F121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D121" s="7">
+        <v>640</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B122" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C122" t="s">
         <v>228</v>
       </c>
-      <c r="D122" t="s">
-        <v>303</v>
-      </c>
-      <c r="E122" t="s">
-        <v>304</v>
-      </c>
-      <c r="F122" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D122" s="7">
+        <v>1142</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="C123" t="s">
         <v>228</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="7">
+        <v>1329</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>219</v>
+      </c>
+      <c r="B124" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124" t="s">
+        <v>228</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E124" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F123" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>154</v>
-      </c>
-      <c r="B124" t="s">
-        <v>307</v>
-      </c>
-      <c r="C124" t="s">
-        <v>228</v>
-      </c>
-      <c r="D124" t="s">
-        <v>308</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F124" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C125" t="s">
-        <v>310</v>
-      </c>
-      <c r="D125" t="s">
+        <v>228</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" t="s">
+        <v>262</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E126" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F125" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>207</v>
-      </c>
-      <c r="B126" t="s">
-        <v>311</v>
-      </c>
-      <c r="C126" t="s">
-        <v>228</v>
-      </c>
-      <c r="D126" t="s">
-        <v>81</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F126" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>207</v>
       </c>
       <c r="B127" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="C127" t="s">
         <v>228</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>207</v>
+      </c>
+      <c r="B128" t="s">
+        <v>264</v>
+      </c>
+      <c r="C128" t="s">
+        <v>228</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E128" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F128" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>100</v>
+      </c>
+      <c r="B129" t="s">
+        <v>265</v>
+      </c>
+      <c r="C129" t="s">
+        <v>266</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G127" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>100</v>
-      </c>
-      <c r="B128" t="s">
-        <v>313</v>
-      </c>
-      <c r="C128" t="s">
-        <v>314</v>
-      </c>
-      <c r="D128" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="F129" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>267</v>
+      </c>
+      <c r="B130" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" t="s">
+        <v>266</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E130" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F128" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>315</v>
-      </c>
-      <c r="B129" t="s">
-        <v>316</v>
-      </c>
-      <c r="C129" t="s">
-        <v>314</v>
-      </c>
-      <c r="D129" t="s">
-        <v>85</v>
-      </c>
-      <c r="E129" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>35</v>
-      </c>
-      <c r="B130" t="s">
-        <v>317</v>
-      </c>
-      <c r="C130" t="s">
-        <v>314</v>
-      </c>
-      <c r="D130" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F130" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>35</v>
       </c>
       <c r="B131" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="C131" t="s">
-        <v>314</v>
-      </c>
-      <c r="D131" t="s">
+        <v>266</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>35</v>
+      </c>
+      <c r="B132" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" t="s">
+        <v>266</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G131" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>83</v>
-      </c>
-      <c r="B132" t="s">
-        <v>319</v>
-      </c>
-      <c r="C132" t="s">
-        <v>314</v>
-      </c>
-      <c r="D132" t="s">
-        <v>105</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F132" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="C133" t="s">
-        <v>314</v>
-      </c>
-      <c r="D133" t="s">
-        <v>137</v>
-      </c>
-      <c r="E133" t="s">
+        <v>266</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E133" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F133" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F133" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="C134" t="s">
-        <v>314</v>
-      </c>
-      <c r="D134" t="s">
-        <v>322</v>
-      </c>
-      <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F134" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F134" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>83</v>
       </c>
       <c r="B135" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="C135" t="s">
-        <v>314</v>
-      </c>
-      <c r="D135" t="s">
-        <v>121</v>
-      </c>
-      <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E135" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F135" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F135" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="C136" t="s">
-        <v>314</v>
-      </c>
-      <c r="D136" t="s">
-        <v>132</v>
-      </c>
-      <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E136" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F136" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F136" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>83</v>
       </c>
       <c r="B137" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" t="s">
-        <v>249</v>
-      </c>
-      <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E137" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F137" t="s">
-        <v>326</v>
-      </c>
-      <c r="G137" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F137" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>164</v>
       </c>
-      <c r="B138" t="s">
-        <v>327</v>
-      </c>
-      <c r="C138" t="s">
-        <v>314</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="B139" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139" t="s">
+        <v>266</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E139" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F138" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" t="s">
-        <v>306</v>
+      <c r="F139" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A95:G136 A1:G94 A138:G138 A137:B137 D137:G137" numberStoredAsText="1"/>
+    <ignoredError sqref="A124:E137 A1:C1 A139:E139 A138:B138 D138:E138 A2:C94 A96:C123" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A468857-99C7-4553-B78B-5E252CFBAEB1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="6">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="6">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="6">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="6">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="6">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="6">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="6">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="6">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="6">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="6">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="6">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="6">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="6">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="6">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="6">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="6">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="6">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="6">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="6">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="6">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="6">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="6">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" s="6">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="6">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2477</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kadastro_veri.xlsx
+++ b/kadastro_veri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0E2C9C-AEE2-4993-AAA4-32F6FA745B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E4641C-3D13-45B6-AC8C-B540B0C0BB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEVAM EDEN" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="272">
   <si>
     <t>İLÇE</t>
   </si>
@@ -72,9 +72,6 @@
     <t/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1.4</t>
   </si>
   <si>
@@ -84,30 +81,15 @@
     <t>Çukurabanoz</t>
   </si>
   <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
     <t>Boğuntu</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
     <t>Bozyazı</t>
   </si>
   <si>
     <t>Beyreli</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>0.31</t>
   </si>
   <si>
@@ -120,9 +102,6 @@
     <t>Elmakuzu</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>45.14</t>
   </si>
   <si>
@@ -156,135 +135,84 @@
     <t>BÜKDEĞİRMENİ</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>8.8</t>
   </si>
   <si>
     <t>CILBAYIR</t>
   </si>
   <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>ÇALTIBOZKIR</t>
   </si>
   <si>
-    <t>397</t>
-  </si>
-  <si>
     <t>75.5</t>
   </si>
   <si>
     <t>ÇATAK</t>
   </si>
   <si>
-    <t>399</t>
-  </si>
-  <si>
     <t>370.6</t>
   </si>
   <si>
     <t>EVKAFÇİFTLİĞİ</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>GÜNDÜZLER</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
     <t>63.5</t>
   </si>
   <si>
     <t>KAVAK</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>18.5</t>
   </si>
   <si>
     <t>MARA</t>
   </si>
   <si>
-    <t>179</t>
-  </si>
-  <si>
     <t>117.6</t>
   </si>
   <si>
     <t>ÖZBOYNUİNCELİ</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>44.2</t>
   </si>
   <si>
     <t>PELİTPINARI</t>
   </si>
   <si>
-    <t>253</t>
-  </si>
-  <si>
     <t>112.8</t>
   </si>
   <si>
     <t>SENİR</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>78.3</t>
   </si>
   <si>
     <t>SEYDİLİ</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>7.7</t>
   </si>
   <si>
     <t>SEYRANLIK</t>
   </si>
   <si>
-    <t>271</t>
-  </si>
-  <si>
     <t>132.6</t>
   </si>
   <si>
     <t>YEĞENLİ</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>6.8</t>
   </si>
   <si>
     <t>YENİBAHÇE</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>0.7</t>
   </si>
   <si>
@@ -294,9 +222,6 @@
     <t>DAYICIK</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>38.7</t>
   </si>
   <si>
@@ -309,18 +234,12 @@
     <t>KONUR</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>60.4</t>
   </si>
   <si>
     <t>KÖSEÇOBANI</t>
   </si>
   <si>
-    <t>868</t>
-  </si>
-  <si>
     <t>299.7</t>
   </si>
   <si>
@@ -333,9 +252,6 @@
     <t>ÖRENPINAR</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
     <t>56.9</t>
   </si>
   <si>
@@ -345,78 +261,33 @@
     <t>Bağcağız</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>Çağlayangedik</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Çömelek</t>
   </si>
   <si>
-    <t>690</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
     <t>Esençay</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Evren (Zeytin Çukuru)</t>
   </si>
   <si>
     <t>Göksu (Kıravga)</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Güzelköy</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
     <t>Hacıilyaslı</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
     <t>Haydar</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Karacaoğlan</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
     <t>Karşıyaka</t>
   </si>
   <si>
@@ -426,39 +297,18 @@
     <t>Kelceköy</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>Kemenli</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Köselerli</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>Meydan</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Narlı</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Narlıdere</t>
   </si>
   <si>
@@ -471,18 +321,9 @@
     <t>Tuğrul</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
     <t>Yalnızcabağ (Kısmen)</t>
   </si>
   <si>
-    <t>128</t>
-  </si>
-  <si>
     <t>Yapıntı</t>
   </si>
   <si>
@@ -492,15 +333,9 @@
     <t>Yeşilköy</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
     <t>Yukarıköselerli</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>Erdemli</t>
   </si>
   <si>
@@ -525,9 +360,6 @@
     <t>Kösbucağı</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>32.5</t>
   </si>
   <si>
@@ -537,9 +369,6 @@
     <t>Akçakocalı</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>52.92</t>
   </si>
   <si>
@@ -558,9 +387,6 @@
     <t>İncirgediği</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>66.31</t>
   </si>
   <si>
@@ -747,9 +573,6 @@
     <t>EVCİLİ</t>
   </si>
   <si>
-    <t>736</t>
-  </si>
-  <si>
     <t>KORUCULAR</t>
   </si>
   <si>
@@ -819,9 +642,6 @@
     <t>Pınarbaşı</t>
   </si>
   <si>
-    <t>198</t>
-  </si>
-  <si>
     <t>Koyuncu</t>
   </si>
   <si>
@@ -859,9 +679,6 @@
   </si>
   <si>
     <t>Şeyhömer</t>
-  </si>
-  <si>
-    <t>72</t>
   </si>
   <si>
     <t>Kayrak</t>
@@ -1059,20 +876,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="162"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1111,26 +926,10 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1139,6 +938,22 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1483,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1492,9 +1307,9 @@
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1508,13 +1323,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1528,14 +1343,14 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,19 +1358,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
+      <c r="D3" s="2">
+        <v>169</v>
+      </c>
+      <c r="E3" s="2">
+        <v>437</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1563,2622 +1378,2622 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
+      <c r="D4" s="2">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
+        <v>154</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
+      <c r="D7" s="2">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="2">
         <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
+      <c r="D13" s="2">
+        <v>133</v>
+      </c>
+      <c r="E13" s="2">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>397</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>13</v>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
+      <c r="D15" s="2">
+        <v>399</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>13</v>
+      <c r="D16" s="2">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>13</v>
+      <c r="D17" s="2">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
+      <c r="D18" s="2">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
+      <c r="D19" s="2">
+        <v>179</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>13</v>
+      <c r="D20" s="2">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
+      <c r="D21" s="2">
+        <v>253</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
+      <c r="D22" s="2">
+        <v>67</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
+      <c r="D23" s="2">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
+      <c r="D24" s="2">
+        <v>271</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>13</v>
+      <c r="D25" s="2">
+        <v>51</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>13</v>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
+      <c r="D27" s="2">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>13</v>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>13</v>
+      <c r="D29" s="2">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>13</v>
+      <c r="D30" s="2">
+        <v>868</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
+      <c r="D31" s="2">
+        <v>25</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>13</v>
+      <c r="D32" s="2">
+        <v>87</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>13</v>
+      <c r="D33" s="2">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2">
+        <v>68</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>13</v>
+      <c r="D34" s="2">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>13</v>
+      <c r="D35" s="2">
+        <v>690</v>
+      </c>
+      <c r="E35" s="2">
+        <v>336</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>13</v>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>13</v>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>13</v>
+      <c r="D38" s="2">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>13</v>
+      <c r="D39" s="2">
+        <v>51</v>
+      </c>
+      <c r="E39" s="2">
+        <v>104</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>13</v>
+      <c r="D40" s="2">
+        <v>29</v>
+      </c>
+      <c r="E40" s="2">
+        <v>305</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>13</v>
+      <c r="D41" s="2">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="D42" s="2">
+        <v>56</v>
+      </c>
+      <c r="E42" s="2">
         <v>125</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>13</v>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>13</v>
+      <c r="D43" s="2">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>13</v>
+      <c r="D44" s="2">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>13</v>
+      <c r="D45" s="2">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2">
+        <v>23</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>13</v>
+      <c r="D46" s="2">
+        <v>27</v>
+      </c>
+      <c r="E46" s="2">
+        <v>14</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>13</v>
+      <c r="D47" s="2">
+        <v>29</v>
+      </c>
+      <c r="E47" s="2">
+        <v>43</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="D48" s="2">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2">
         <v>13</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>13</v>
+      <c r="D49" s="2">
+        <v>6</v>
+      </c>
+      <c r="E49" s="2">
+        <v>6</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>13</v>
+      <c r="D50" s="2">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>13</v>
+      <c r="D51" s="2">
+        <v>30</v>
+      </c>
+      <c r="E51" s="2">
+        <v>23</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>13</v>
+      <c r="D52" s="2">
+        <v>12</v>
+      </c>
+      <c r="E52" s="2">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>13</v>
+      <c r="D53" s="2">
+        <v>44</v>
+      </c>
+      <c r="E53" s="2">
+        <v>92</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>13</v>
+      <c r="D54" s="2">
+        <v>128</v>
+      </c>
+      <c r="E54" s="2">
+        <v>87</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>13</v>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>13</v>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>13</v>
+      <c r="D57" s="2">
+        <v>29</v>
+      </c>
+      <c r="E57" s="2">
+        <v>69</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>13</v>
+      <c r="D58" s="2">
+        <v>89</v>
+      </c>
+      <c r="E58" s="2">
+        <v>179</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>13</v>
+      <c r="D59" s="2">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>13</v>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>13</v>
+      <c r="D61" s="2">
+        <v>30</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>13</v>
+      <c r="D62" s="2">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>13</v>
+      <c r="D63" s="2">
+        <v>53</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>13</v>
+      <c r="D64" s="2">
+        <v>35</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="D65" s="2">
         <v>13</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F66" s="7" t="s">
+      <c r="D66" s="2">
         <v>13</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>13</v>
+      <c r="D67" s="2">
+        <v>39</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>13</v>
+      <c r="D68" s="2">
+        <v>22</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>13</v>
+      <c r="D69" s="2">
+        <v>9</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>13</v>
+      <c r="D70" s="2">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>13</v>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>13</v>
+      <c r="D72" s="2">
+        <v>5</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>13</v>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>13</v>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>13</v>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>13</v>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>13</v>
+      <c r="D77" s="2">
+        <v>4</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>13</v>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>13</v>
+      <c r="D79" s="2">
+        <v>5</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B80" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>13</v>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B81" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>13</v>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>13</v>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B83" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>13</v>
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B84" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>13</v>
+      <c r="D84" s="2">
+        <v>6</v>
+      </c>
+      <c r="E84" s="2">
+        <v>7</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B85" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>13</v>
+      <c r="D85" s="2">
+        <v>5</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>13</v>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>13</v>
+      <c r="D87" s="2">
+        <v>2</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>13</v>
+      <c r="D88" s="2">
+        <v>3</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>13</v>
+      <c r="D89" s="2">
+        <v>3</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>13</v>
+      <c r="D90" s="2">
+        <v>2</v>
+      </c>
+      <c r="E90" s="2">
+        <v>5</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>13</v>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>13</v>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B93" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>13</v>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>13</v>
+      <c r="D94" s="2">
+        <v>3</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
-        <v>228</v>
-      </c>
-      <c r="D95" s="7">
+        <v>170</v>
+      </c>
+      <c r="D95" s="2">
         <v>560</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="7" t="s">
-        <v>13</v>
+      <c r="E95" s="3"/>
+      <c r="F95" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>228</v>
-      </c>
-      <c r="D96" s="7">
+        <v>170</v>
+      </c>
+      <c r="D96" s="2">
         <v>937</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>13</v>
+      <c r="F96" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="C97" t="s">
-        <v>228</v>
-      </c>
-      <c r="D97" s="7">
+        <v>170</v>
+      </c>
+      <c r="D97" s="2">
         <v>638</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>13</v>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="C98" t="s">
-        <v>228</v>
-      </c>
-      <c r="D98" s="7">
+        <v>170</v>
+      </c>
+      <c r="D98" s="2">
         <v>3006</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>13</v>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="C99" t="s">
-        <v>228</v>
-      </c>
-      <c r="D99" s="7">
+        <v>170</v>
+      </c>
+      <c r="D99" s="2">
         <v>871</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>13</v>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>228</v>
-      </c>
-      <c r="D100" s="7">
+        <v>170</v>
+      </c>
+      <c r="D100" s="2">
         <v>1128</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>13</v>
+      <c r="F100" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="C101" t="s">
-        <v>228</v>
-      </c>
-      <c r="D101" s="7">
+        <v>170</v>
+      </c>
+      <c r="D101" s="2">
         <v>204</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>13</v>
+      <c r="F101" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="C102" t="s">
-        <v>228</v>
-      </c>
-      <c r="D102" s="7">
+        <v>170</v>
+      </c>
+      <c r="D102" s="2">
         <v>3396</v>
       </c>
-      <c r="F102" s="7" t="s">
-        <v>13</v>
+      <c r="F102" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B103" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C103" t="s">
-        <v>228</v>
-      </c>
-      <c r="D103" s="7">
+        <v>170</v>
+      </c>
+      <c r="D103" s="2">
         <v>402</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>13</v>
+      <c r="F103" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="C104" t="s">
-        <v>228</v>
-      </c>
-      <c r="D104" s="7">
+        <v>170</v>
+      </c>
+      <c r="D104" s="2">
         <v>1775</v>
       </c>
-      <c r="F104" s="7" t="s">
-        <v>13</v>
+      <c r="F104" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="C105" t="s">
-        <v>228</v>
-      </c>
-      <c r="D105" s="7">
+        <v>170</v>
+      </c>
+      <c r="D105" s="2">
         <v>1850</v>
       </c>
-      <c r="F105" s="7" t="s">
-        <v>13</v>
+      <c r="F105" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="C106" t="s">
-        <v>228</v>
-      </c>
-      <c r="D106" s="7">
+        <v>170</v>
+      </c>
+      <c r="D106" s="2">
         <v>1439</v>
       </c>
-      <c r="F106" s="7" t="s">
-        <v>13</v>
+      <c r="F106" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C107" t="s">
-        <v>228</v>
-      </c>
-      <c r="D107" s="7">
+        <v>170</v>
+      </c>
+      <c r="D107" s="2">
         <v>1277</v>
       </c>
-      <c r="F107" s="7" t="s">
-        <v>13</v>
+      <c r="F107" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C108" t="s">
-        <v>228</v>
-      </c>
-      <c r="D108" s="7">
+        <v>170</v>
+      </c>
+      <c r="D108" s="2">
         <v>422</v>
       </c>
-      <c r="F108" s="7" t="s">
-        <v>13</v>
+      <c r="F108" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="C109" t="s">
-        <v>228</v>
-      </c>
-      <c r="D109" s="7">
+        <v>170</v>
+      </c>
+      <c r="D109" s="2">
         <v>415</v>
       </c>
-      <c r="F109" s="7" t="s">
-        <v>13</v>
+      <c r="F109" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="C110" t="s">
-        <v>228</v>
-      </c>
-      <c r="D110" s="7">
+        <v>170</v>
+      </c>
+      <c r="D110" s="2">
         <v>980</v>
       </c>
-      <c r="F110" s="7" t="s">
-        <v>13</v>
+      <c r="F110" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="C111" t="s">
-        <v>228</v>
-      </c>
-      <c r="D111" s="7">
+        <v>170</v>
+      </c>
+      <c r="D111" s="2">
         <v>808</v>
       </c>
-      <c r="F111" s="7" t="s">
-        <v>13</v>
+      <c r="F111" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="C112" t="s">
-        <v>228</v>
-      </c>
-      <c r="D112" s="7">
+        <v>170</v>
+      </c>
+      <c r="D112" s="2">
         <v>1757</v>
       </c>
-      <c r="F112" s="7" t="s">
-        <v>13</v>
+      <c r="F112" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="C113" t="s">
-        <v>228</v>
-      </c>
-      <c r="D113" s="7">
+        <v>170</v>
+      </c>
+      <c r="D113" s="2">
         <v>1021</v>
       </c>
-      <c r="F113" s="7" t="s">
-        <v>13</v>
+      <c r="F113" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="C114" t="s">
-        <v>228</v>
-      </c>
-      <c r="D114" s="7">
+        <v>170</v>
+      </c>
+      <c r="D114" s="2">
         <v>564</v>
       </c>
-      <c r="F114" s="7" t="s">
-        <v>13</v>
+      <c r="F114" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="C115" t="s">
-        <v>228</v>
-      </c>
-      <c r="D115" s="7">
+        <v>170</v>
+      </c>
+      <c r="D115" s="2">
         <v>2418</v>
       </c>
-      <c r="F115" s="7" t="s">
-        <v>13</v>
+      <c r="F115" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="C116" t="s">
-        <v>228</v>
-      </c>
-      <c r="D116" s="7">
+        <v>170</v>
+      </c>
+      <c r="D116" s="2">
         <v>2706</v>
       </c>
-      <c r="F116" s="7" t="s">
-        <v>13</v>
+      <c r="F116" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="C117" t="s">
-        <v>228</v>
-      </c>
-      <c r="D117" s="7">
+        <v>170</v>
+      </c>
+      <c r="D117" s="2">
         <v>4070</v>
       </c>
-      <c r="F117" s="7" t="s">
-        <v>13</v>
+      <c r="F117" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="C118" t="s">
-        <v>228</v>
-      </c>
-      <c r="D118" s="7">
+        <v>170</v>
+      </c>
+      <c r="D118" s="2">
         <v>2452</v>
       </c>
-      <c r="F118" s="7" t="s">
-        <v>13</v>
+      <c r="F118" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="C119" t="s">
-        <v>228</v>
-      </c>
-      <c r="D119" s="7">
+        <v>170</v>
+      </c>
+      <c r="D119" s="2">
         <v>7117</v>
       </c>
-      <c r="F119" s="7" t="s">
-        <v>13</v>
+      <c r="F119" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="C120" t="s">
-        <v>228</v>
-      </c>
-      <c r="D120" s="7">
+        <v>170</v>
+      </c>
+      <c r="D120" s="2">
         <v>640</v>
       </c>
-      <c r="F120" s="7" t="s">
-        <v>13</v>
+      <c r="F120" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="C121" t="s">
-        <v>228</v>
-      </c>
-      <c r="D121" s="7">
+        <v>170</v>
+      </c>
+      <c r="D121" s="2">
         <v>1142</v>
       </c>
-      <c r="F121" s="7" t="s">
-        <v>13</v>
+      <c r="F121" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="C122" t="s">
-        <v>228</v>
-      </c>
-      <c r="D122" s="7">
+        <v>170</v>
+      </c>
+      <c r="D122" s="2">
         <v>1329</v>
       </c>
-      <c r="F122" s="7" t="s">
-        <v>13</v>
+      <c r="F122" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="C123" t="s">
-        <v>228</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E123" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D123" s="2">
+        <v>14</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F123" s="7" t="s">
-        <v>258</v>
+      <c r="F123" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="C124" t="s">
-        <v>228</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E124" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" s="2">
+        <v>198</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>258</v>
+      <c r="F124" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B125" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C125" t="s">
-        <v>262</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E125" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D125" s="2">
+        <v>11</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="7" t="s">
-        <v>258</v>
+      <c r="F125" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="C126" t="s">
-        <v>228</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E126" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D126" s="2">
+        <v>4</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="7" t="s">
-        <v>258</v>
+      <c r="F126" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="C127" t="s">
-        <v>228</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="7" t="s">
-        <v>258</v>
+      <c r="F127" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B128" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C128" t="s">
-        <v>266</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F128" s="7" t="s">
-        <v>258</v>
+      <c r="F128" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="B129" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C129" t="s">
-        <v>266</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E129" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D129" s="2">
+        <v>17</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F129" s="7" t="s">
-        <v>258</v>
+      <c r="F129" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B130" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="C130" t="s">
-        <v>266</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="7" t="s">
-        <v>258</v>
+      <c r="F130" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B131" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="C131" t="s">
-        <v>266</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F131" s="7" t="s">
-        <v>258</v>
+      <c r="F131" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B132" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="C132" t="s">
-        <v>266</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E132" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D132" s="2">
+        <v>5</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="7" t="s">
-        <v>258</v>
+      <c r="F132" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B133" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="C133" t="s">
-        <v>266</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E133" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D133" s="2">
+        <v>7</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="7" t="s">
-        <v>258</v>
+      <c r="F133" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B134" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="C134" t="s">
-        <v>266</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E134" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D134" s="2">
+        <v>72</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F134" s="7" t="s">
-        <v>258</v>
+      <c r="F134" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B135" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="C135" t="s">
-        <v>266</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E135" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D135" s="2">
+        <v>12</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F135" s="7" t="s">
-        <v>258</v>
+      <c r="F135" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B136" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="C136" t="s">
-        <v>266</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E136" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D136" s="2">
+        <v>27</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F136" s="7" t="s">
-        <v>258</v>
+      <c r="F136" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B137" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E137" s="7" t="s">
+      <c r="D137" s="2">
+        <v>736</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F137" s="7" t="s">
-        <v>258</v>
+      <c r="F137" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>266</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E138" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D138" s="2">
+        <v>4</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F138" s="7" t="s">
-        <v>258</v>
+      <c r="F138" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A123:E136 A1:C1 A138:E138 A137:B137 D137:E137 A2:C94 A95:C122" numberStoredAsText="1"/>
+    <ignoredError sqref="A136:C136 A1:C1 A138:C138 A137:B137 E137 A2:C94 A95:C122 A123:C123 E123 A124:C124 E124 A125:C125 E125 A126:C126 E126 A127:C127 E127 A128:C128 E128 A129:C129 E129 A130:C130 E130 A131:C131 E131 A132:C132 E132 A133:C133 E133 A134:C134 E134 A135:C135 E135 E136 E138" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4187,8 +4002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A468857-99C7-4553-B78B-5E252CFBAEB1}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4200,772 +4015,772 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="6">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="6">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="6">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="6">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="6">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="1">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="1">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="1">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="1">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="1">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="1">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="1">
         <v>287</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" s="6">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="6">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="6">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="6">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" s="6">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="6">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="6">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="6">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="6">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="6">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" s="6">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27" s="6">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D29" s="6">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="6">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="6">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="6">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="6">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="6">
-        <v>3092</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D37" s="6">
-        <v>3647</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D39" s="6">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41" s="6">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="6">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44" s="6">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D45" s="6">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="6">
-        <v>5107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D48" s="6">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D49" s="6">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" s="6">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D51" s="6">
-        <v>287</v>
-      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52" s="6">
+      <c r="A52" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="1">
         <v>728</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="6">
+      <c r="A53" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="1">
         <v>1057</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="6">
+      <c r="A54" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="1">
         <v>1197</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" s="6">
+      <c r="A55" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="1">
         <v>2477</v>
       </c>
     </row>

--- a/kadastro_veri.xlsx
+++ b/kadastro_veri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E4641C-3D13-45B6-AC8C-B540B0C0BB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D603B4DD-6D6D-413A-9BCB-784A1D111CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEVAM EDEN" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="268">
   <si>
     <t>İLÇE</t>
   </si>
@@ -693,9 +693,6 @@
     <t>Kahraman Gülek</t>
   </si>
   <si>
-    <t>ANAMUR</t>
-  </si>
-  <si>
     <t>AŞAĞIKÜKÜR</t>
   </si>
   <si>
@@ -762,15 +759,9 @@
     <t>YUKARIKÜKÜR</t>
   </si>
   <si>
-    <t>AYDINCIK</t>
-  </si>
-  <si>
     <t>HACIBAHATTİN</t>
   </si>
   <si>
-    <t>BOZYAZI</t>
-  </si>
-  <si>
     <t>BAHÇEKOYAĞI</t>
   </si>
   <si>
@@ -801,9 +792,6 @@
     <t>DEREKÖY</t>
   </si>
   <si>
-    <t>GÜLNAR</t>
-  </si>
-  <si>
     <t>BÜYÜKECELİ</t>
   </si>
   <si>
@@ -813,9 +801,6 @@
     <t>ZEYNE(SÜTLÜCE)</t>
   </si>
   <si>
-    <t>SİLİFKE</t>
-  </si>
-  <si>
     <t>ALTINKUM</t>
   </si>
   <si>
@@ -853,6 +838,9 @@
   </si>
   <si>
     <t>ULUGÖZ</t>
+  </si>
+  <si>
+    <t>Aydıncık</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
@@ -4002,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A468857-99C7-4553-B78B-5E252CFBAEB1}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B55"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4030,10 +4018,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>170</v>
@@ -4044,10 +4032,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>170</v>
@@ -4058,10 +4046,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>170</v>
@@ -4072,10 +4060,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>170</v>
@@ -4086,10 +4074,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>170</v>
@@ -4100,10 +4088,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>170</v>
@@ -4114,10 +4102,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>170</v>
@@ -4128,10 +4116,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>170</v>
@@ -4142,10 +4130,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>170</v>
@@ -4156,10 +4144,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>170</v>
@@ -4170,10 +4158,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>170</v>
@@ -4184,10 +4172,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>170</v>
@@ -4198,10 +4186,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>170</v>
@@ -4212,10 +4200,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>170</v>
@@ -4226,10 +4214,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>170</v>
@@ -4240,10 +4228,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>170</v>
@@ -4254,10 +4242,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>170</v>
@@ -4268,10 +4256,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>170</v>
@@ -4282,10 +4270,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>170</v>
@@ -4296,10 +4284,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>170</v>
@@ -4310,10 +4298,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>170</v>
@@ -4324,10 +4312,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>170</v>
@@ -4338,10 +4326,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>170</v>
@@ -4352,10 +4340,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>170</v>
@@ -4366,10 +4354,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>170</v>
@@ -4380,10 +4368,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>170</v>
@@ -4394,10 +4382,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>170</v>
@@ -4408,10 +4396,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>170</v>
@@ -4422,10 +4410,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>170</v>
@@ -4436,10 +4424,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>170</v>
@@ -4450,10 +4438,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>170</v>
@@ -4464,10 +4452,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>170</v>
@@ -4478,10 +4466,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>170</v>
@@ -4492,10 +4480,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>170</v>
@@ -4506,10 +4494,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>170</v>
@@ -4520,10 +4508,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>170</v>
@@ -4534,10 +4522,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>170</v>
@@ -4548,10 +4536,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>170</v>
@@ -4562,10 +4550,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>170</v>
@@ -4576,10 +4564,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>170</v>
@@ -4590,10 +4578,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>170</v>
@@ -4604,10 +4592,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>170</v>
@@ -4618,10 +4606,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>170</v>
@@ -4632,10 +4620,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>170</v>
@@ -4646,7 +4634,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>33</v>
@@ -4660,10 +4648,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>170</v>
@@ -4674,7 +4662,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>41</v>
@@ -4688,10 +4676,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>170</v>
@@ -4702,7 +4690,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>43</v>
@@ -4716,10 +4704,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>170</v>
@@ -4730,7 +4718,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>51</v>
@@ -4744,10 +4732,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>170</v>
@@ -4758,10 +4746,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>170</v>
@@ -4772,7 +4760,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>55</v>
